--- a/DuleCard/配置表/秘籍配置表.xlsx
+++ b/DuleCard/配置表/秘籍配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="11595"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="BookCfg" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
     <t>{敌方使用内功类招式时}攻击+6</t>
   </si>
   <si>
-    <t>{敌方使用招式时}获得绝招“总决式”</t>
+    <t>{敌方出牌时}获得绝招“总决式”</t>
   </si>
   <si>
     <t>100-26002;100-260021</t>
@@ -867,13 +867,13 @@
     <t>明教教主秘法不为外人所知</t>
   </si>
   <si>
-    <t>45011;45012;45013;45014;45015</t>
-  </si>
-  <si>
-    <t>获得&lt;b&gt;反震3&lt;/b&gt;，持续2回合</t>
-  </si>
-  <si>
-    <t>获得&lt;b&gt;反震6&lt;/b&gt;，持续3回合</t>
+    <t>45011;45012;45013;45014;45015;45016</t>
+  </si>
+  <si>
+    <t>获得【反震3】，持续2回合</t>
+  </si>
+  <si>
+    <t>获得【反震6】，持续3回合</t>
   </si>
   <si>
     <t>{受到敌方伤害时}获得绝招“乾坤七层”</t>
@@ -980,10 +980,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1007,13 +1007,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1028,8 +1076,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1045,30 +1122,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,75 +1150,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1157,6 +1157,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1172,13 +1208,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1268,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,61 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,43 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,19 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1358,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,6 +1408,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1407,50 +1451,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1459,10 +1459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1471,137 +1471,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,18 +1667,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2036,11 +2024,11 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2679,10 +2667,10 @@
         <v>5</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="9" t="s">
         <v>118</v>
       </c>
       <c r="K15" s="9"/>
@@ -2944,7 +2932,7 @@
       <c r="I20" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="9" t="s">
         <v>179</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2996,7 +2984,7 @@
       <c r="I21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="9" t="s">
         <v>191</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -3101,11 +3089,11 @@
         <v>5</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="9" t="s">
         <v>216</v>
       </c>
       <c r="L23" s="9"/>
@@ -3146,7 +3134,7 @@
       <c r="I24" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -3253,7 +3241,7 @@
       <c r="H26" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="9" t="s">
         <v>249</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -3310,7 +3298,7 @@
       <c r="I27" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="9" t="s">
         <v>263</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -3359,11 +3347,11 @@
         <v>5</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="9" t="s">
         <v>275</v>
       </c>
       <c r="L28" s="9" t="s">
